--- a/biology/Médecine/Pantophobie/Pantophobie.xlsx
+++ b/biology/Médecine/Pantophobie/Pantophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pantophobie (du grec πᾶν - pan, lui-même lié à "πᾶς" - pas (« tout »)[1] et φόβος - phobos (« peur »)[2]), également connue sous les noms omniphobie et panophobie, est une phobie non spécifique connue comme étant une peur de tout. Elle est décrite comme étant l'expression d'une « crainte vague et persistante d'un danger inconnu[trad 1],[3]. » Le terme de panphobie peut également être utilisé, bien qu'en français celui-ci désigne également l'aversion de la pansexualité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pantophobie (du grec πᾶν - pan, lui-même lié à "πᾶς" - pas (« tout ») et φόβος - phobos (« peur »)), également connue sous les noms omniphobie et panophobie, est une phobie non spécifique connue comme étant une peur de tout. Elle est décrite comme étant l'expression d'une « crainte vague et persistante d'un danger inconnu[trad 1],. » Le terme de panphobie peut également être utilisé, bien qu'en français celui-ci désigne également l'aversion de la pansexualité.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme est utilisé dès 1911 par Théodule-Armand Ribot[4] dans The Psychology of the Emotions[5]. Il décrit cette dernière comme étant un « état où le patient craint tout et n'importe quoi. L'anxiété, plutôt que d'être focalisée sur un objet, va et vient comme dans un rêve et passe d'un objet à l'autre selon les circonstances[trad 2],[5]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est utilisé dès 1911 par Théodule-Armand Ribot dans The Psychology of the Emotions. Il décrit cette dernière comme étant un « état où le patient craint tout et n'importe quoi. L'anxiété, plutôt que d'être focalisée sur un objet, va et vient comme dans un rêve et passe d'un objet à l'autre selon les circonstances[trad 2],. »
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
